--- a/Main_Projects/User.xlsx
+++ b/Main_Projects/User.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,6 +433,126 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ram</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>a6b9d35a49b08e3fac7b55c40d82c9e94d3c95372a311a6e514fecfd8d25f12c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>shyam</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>10fafde90fe4807c69e48bfd0ace9009d2d7960d5791d332993d919fb18d4118</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>gita</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>6c0e6e4e943a00bd2e4e5a4f71505191782a0057698d941f6a7bc488285a5ce8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sita</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0a1c03e198d0456914d48d071b4750a67f94de98a66a100a9ce460ffdb097d5a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>hari</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>108e705907a4ed77128ec2321b086388d3169297cd800703b1ab20ba8aa7537e</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>rita</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0a4829ed2058666ed1ff822176350bb3ec13aeddb1ce62997be6e95a0d86b789</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nita</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>9c2477768ccddcb0c70cf7225997ebbe66d286b912166623ade9721f2da8a241</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ramesh</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>4c75befceb74064dd44eaf096a6610c55d006b1017dca7a95db690d24b53d78d</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>naresh</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>b83db0f80eb76c475222ec1ce46e0a6b6fc636eacf035686facb1c28fbfcb105</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>yogesh</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>65cb375f4d9b52490cd67d6dee9bc26f8d8c39c6ac5e0131e1a397077d9e5529</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
